--- a/Figures and tables/Table 2 Identified Major QTLs.xlsx
+++ b/Figures and tables/Table 2 Identified Major QTLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0DCBFF-B5E1-4D41-9761-633874B42DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE9250-73D2-4F25-BC95-B77EB9EC1B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2069966F-AA10-46B3-8D0A-165EBEE7204B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Locus name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>P value</t>
   </si>
   <si>
-    <t>Relevant genes</t>
-  </si>
-  <si>
     <t>Trait class</t>
   </si>
   <si>
@@ -51,15 +48,6 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>Stress response</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>LOC_Os01g66120, LOC_Os01g66350, LOC_Os01g66050, LOC_Os01g66000, LOC_Os01g65920</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
@@ -69,48 +57,24 @@
     <t>Salt tolerance</t>
   </si>
   <si>
-    <t>LOC_Os03g03590, LOC_Os03g03540, LOC_Os03g03510, LOC_Os03g03460, LOC_Os03g03450, LOC_Os03g03700, LOC_Os03g03720, LOC_Os03g03810, LOC_Os03g04060, LOC_Os03g04070</t>
-  </si>
-  <si>
     <t>qCDP4</t>
   </si>
   <si>
-    <t>Os03g0407400</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>qCDP5</t>
   </si>
   <si>
-    <t>LOC_Os05g08730, LOC_Os05g08620, LOC_Os05g08770, LOC_Os05g08770, LOC_Os05g08920</t>
-  </si>
-  <si>
     <t>qCDP6</t>
   </si>
   <si>
-    <t>LOC_Os05g30480, LOC_Os05g30430, LOC_Os05g30320</t>
-  </si>
-  <si>
     <t>qCDP7</t>
   </si>
   <si>
-    <t>LOC_Os06g35530, LOC_Os06g35574, LOC_Os06g35520, LOC_Os06g35410</t>
-  </si>
-  <si>
     <t>qCDP8</t>
   </si>
   <si>
-    <t>LOC_Os07g36600, LOC_Os07g36740, LOC_Os07g36750, LOC_Os07g36700, LOC_Os07g36690, LOC_Os07g37030, LOC_Os07g37610, LOC_Os07g37210, LOC_Os07g37240, LOC_Os07g37580, LOC_Os07g37640</t>
-  </si>
-  <si>
     <t>qCDP9</t>
   </si>
   <si>
-    <t xml:space="preserve">LOC_Os08g43200, LOC_Os08g43130, LOC_Os08g43270, LOC_Os08g43370, LOC_Os08g43410, </t>
-  </si>
-  <si>
     <t>qCDP15</t>
   </si>
   <si>
@@ -120,25 +84,115 @@
     <t>qCDP17</t>
   </si>
   <si>
-    <t>LOC_Os09g18470, LOC_Os09g18450</t>
-  </si>
-  <si>
-    <t>LOC_Os12g05990, LOC_Os12g06110, LOC_Os12g06330</t>
-  </si>
-  <si>
-    <t>LOC_Os12g28260, LOC_Os12g28100, LOC_Os12g28250</t>
-  </si>
-  <si>
-    <t>LOC_Os12g41650, LOC_Os12g41680, LOC_Os12g41700, LOC_Os12g41380</t>
-  </si>
-  <si>
     <t>qCDP11</t>
   </si>
   <si>
     <t>qCDP13</t>
   </si>
   <si>
-    <t xml:space="preserve">LOC_Os10g34930, LOC_Os10g35050, LOC_Os10g35110, LOC_Os10g35180, LOC_Os10g34680, </t>
+    <t>qCDP2</t>
+  </si>
+  <si>
+    <t>qCDP10</t>
+  </si>
+  <si>
+    <t>qCDP12</t>
+  </si>
+  <si>
+    <t>qCDP14</t>
+  </si>
+  <si>
+    <t>Stress shoot length, SES</t>
+  </si>
+  <si>
+    <t>Seed height, seed weight, seed volume</t>
+  </si>
+  <si>
+    <t>Traits where observed</t>
+  </si>
+  <si>
+    <t>Traits previously linked to by GWAS</t>
+  </si>
+  <si>
+    <t>Shoot potassium</t>
+  </si>
+  <si>
+    <t>Grain length, grain shape and grain width[Misra et al. 2017]</t>
+  </si>
+  <si>
+    <t>Seed weight, seed volume</t>
+  </si>
+  <si>
+    <t>Grain width[Huang et al. 2010]</t>
+  </si>
+  <si>
+    <t>Seed height, seed weight, seed width, seed volume</t>
+  </si>
+  <si>
+    <t>Lost shoot length, lost shoot weight</t>
+  </si>
+  <si>
+    <t>Root length under phosphate deprivation[Mai et al. 2020]; total dry weight under salt stress[Yu et al. 2017]</t>
+  </si>
+  <si>
+    <t>Stress shoot length, stress root thickness</t>
+  </si>
+  <si>
+    <t>Seed imbibition under salt stress[Cui et al. 2018]; relative maximum leaf length in salt stress[Frouin et al. 2018]; biomass, panicle dry weight, grain yield[Diop et al. 2020]</t>
+  </si>
+  <si>
+    <t>Stress root thickness, stress shoot thickness</t>
+  </si>
+  <si>
+    <t>Salt injury score, plant dry weight under salt stress[Leon et al. 2016]</t>
+  </si>
+  <si>
+    <t>Root length in salt stress[Leon et al. 2016]; spikely sterility[Dingkuhn et al. 2017]; resistance to bacterial blight[Delorean et al. 2016], potassium content and sodium-potassium ratio in salt stress[Frouin et al. 2018]</t>
+  </si>
+  <si>
+    <t>Lost shoot weight</t>
+  </si>
+  <si>
+    <t>Low temperature seedling survivability[Schläppi et al. 2017]</t>
+  </si>
+  <si>
+    <t>Lost shoot length</t>
+  </si>
+  <si>
+    <t>Seed germination rate under salt stress[Cui et al. 2018]</t>
+  </si>
+  <si>
+    <t>Shoot potassium, chlorophyll A, chlorophyll B, lost root length, shoot sodium content</t>
+  </si>
+  <si>
+    <t>Stress shoot thickness, stress shoot weight, stress chlorophyll A</t>
+  </si>
+  <si>
+    <t>Stress root potassium, root weight</t>
+  </si>
+  <si>
+    <t>SSI score, green leaves, shoot biomass, root biomass in salt stress[Rohila et al. 2019]</t>
+  </si>
+  <si>
+    <t>Seed density</t>
+  </si>
+  <si>
+    <t>Shoot thickness</t>
+  </si>
+  <si>
+    <t>Shoot weight to length ratio[To et al. 2019]</t>
+  </si>
+  <si>
+    <t>Stress root potassium, stress root sodium</t>
+  </si>
+  <si>
+    <t>Stress root length</t>
+  </si>
+  <si>
+    <t>Shoot length, shoot to root ratio and potassium concentration in salt stress[Leon et al. 2016]; root weight under phosphate starvation[Mai et al. 2020]; shoot weight, plant weight[To et al 2019]; shoot length, shoot length under zinc stress[Zhang et al. 2016]; shoot height in control and under aluminium stress[Tao et al. 2018]; root length under salt treatment, relative dry shoot weight, relative biomass[Zhang et al. 2020]</t>
+  </si>
+  <si>
+    <t>Shoot length in salt stress[Leon et al. 2016]; low temperature seedling survivability and survival[Schläppi et al. 2017]</t>
   </si>
 </sst>
 </file>
@@ -491,29 +545,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7087A0BE-39E9-47DA-A132-F6FFF58B6754}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="61.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -525,18 +579,18 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -548,286 +602,363 @@
         <v>7.2230381320013802E-7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1528621</v>
+        <v>8362267</v>
       </c>
       <c r="E3" s="1">
-        <v>2.6499999999999999E-8</v>
+        <v>6.7299999999999997E-9</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
+        <v>1528621</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.6499999999999999E-8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>16733441</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>5.4999999999999996E-16</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>4865065</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.24091643989596E-7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>4865065</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.24091643989596E-7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>17632907</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>2.2600000000000001E-7</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>20760852</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.2310299008981098E-6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>21913935</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0476101338782101E-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>27323749</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.4671335709350698E-6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9438999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.53761152184483E-6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>11455731</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.913880085705E-6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>20273741</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4581665434927499E-6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>18641874</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.06819855716407E-6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>15343460</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.3910703814473598E-6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>20760852</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.2310299008981098E-6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>21913935</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.0476101338782101E-6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>27323749</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.4671335709350698E-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>11455731</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.913880085705E-6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>18641874</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.06819855716407E-6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>2854998</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E16" s="1">
         <v>6.5122100990227204E-6</v>
       </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <v>16595682</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E17" s="1">
         <v>5.5023675465818302E-6</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>25769505</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E18" s="1">
         <v>7.5742468987956197E-6</v>
       </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Figures and tables/Table 2 Identified Major QTLs.xlsx
+++ b/Figures and tables/Table 2 Identified Major QTLs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Revision\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE9250-73D2-4F25-BC95-B77EB9EC1B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73EA6B-3ACB-4E16-BBF0-0EFD8FFAB1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2069966F-AA10-46B3-8D0A-165EBEE7204B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2069966F-AA10-46B3-8D0A-165EBEE7204B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Locus name</t>
   </si>
@@ -42,72 +42,15 @@
     <t>Trait class</t>
   </si>
   <si>
-    <t>qCDP1</t>
-  </si>
-  <si>
     <t>Biomass</t>
   </si>
   <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>qCDP3</t>
-  </si>
-  <si>
     <t>Salt tolerance</t>
   </si>
   <si>
-    <t>qCDP4</t>
-  </si>
-  <si>
-    <t>qCDP5</t>
-  </si>
-  <si>
-    <t>qCDP6</t>
-  </si>
-  <si>
-    <t>qCDP7</t>
-  </si>
-  <si>
-    <t>qCDP8</t>
-  </si>
-  <si>
-    <t>qCDP9</t>
-  </si>
-  <si>
-    <t>qCDP15</t>
-  </si>
-  <si>
-    <t>qCDP16</t>
-  </si>
-  <si>
-    <t>qCDP17</t>
-  </si>
-  <si>
-    <t>qCDP11</t>
-  </si>
-  <si>
-    <t>qCDP13</t>
-  </si>
-  <si>
-    <t>qCDP2</t>
-  </si>
-  <si>
-    <t>qCDP10</t>
-  </si>
-  <si>
-    <t>qCDP12</t>
-  </si>
-  <si>
-    <t>qCDP14</t>
-  </si>
-  <si>
     <t>Stress shoot length, SES</t>
   </si>
   <si>
-    <t>Seed height, seed weight, seed volume</t>
-  </si>
-  <si>
     <t>Traits where observed</t>
   </si>
   <si>
@@ -117,18 +60,6 @@
     <t>Shoot potassium</t>
   </si>
   <si>
-    <t>Grain length, grain shape and grain width[Misra et al. 2017]</t>
-  </si>
-  <si>
-    <t>Seed weight, seed volume</t>
-  </si>
-  <si>
-    <t>Grain width[Huang et al. 2010]</t>
-  </si>
-  <si>
-    <t>Seed height, seed weight, seed width, seed volume</t>
-  </si>
-  <si>
     <t>Lost shoot length, lost shoot weight</t>
   </si>
   <si>
@@ -174,9 +105,6 @@
     <t>SSI score, green leaves, shoot biomass, root biomass in salt stress[Rohila et al. 2019]</t>
   </si>
   <si>
-    <t>Seed density</t>
-  </si>
-  <si>
     <t>Shoot thickness</t>
   </si>
   <si>
@@ -193,6 +121,45 @@
   </si>
   <si>
     <t>Shoot length in salt stress[Leon et al. 2016]; low temperature seedling survivability and survival[Schläppi et al. 2017]</t>
+  </si>
+  <si>
+    <t>qCDP1.1</t>
+  </si>
+  <si>
+    <t>qCDP3.1</t>
+  </si>
+  <si>
+    <t>qCDP5.1</t>
+  </si>
+  <si>
+    <t>qCDP6.1</t>
+  </si>
+  <si>
+    <t>qCDP7.1</t>
+  </si>
+  <si>
+    <t>qCDP8.1</t>
+  </si>
+  <si>
+    <t>qCDP9.1</t>
+  </si>
+  <si>
+    <t>qCDP9.2</t>
+  </si>
+  <si>
+    <t>qCDP9.3</t>
+  </si>
+  <si>
+    <t>qCDP10.1</t>
+  </si>
+  <si>
+    <t>qCDP12.1</t>
+  </si>
+  <si>
+    <t>qCDP12.2</t>
+  </si>
+  <si>
+    <t>qCDP12.3</t>
   </si>
 </sst>
 </file>
@@ -545,24 +512,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7087A0BE-39E9-47DA-A132-F6FFF58B6754}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="61.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="94.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="94.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,18 +544,18 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -602,363 +567,277 @@
         <v>7.2230381320013802E-7</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1528621</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.6499999999999999E-8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>17632907</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2600000000000001E-7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>20760852</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2310299008981098E-6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>21913935</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0476101338782101E-6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>27323749</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4671335709350698E-6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>9438999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.53761152184483E-6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>11455731</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.913880085705E-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>20273741</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.4581665434927499E-6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>18641874</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.06819855716407E-6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>8362267</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.7299999999999997E-9</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2854998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.5122100990227204E-6</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1528621</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.6499999999999999E-8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>16595682</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.5023675465818302E-6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>25769505</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.5742468987956197E-6</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>16733441</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.4999999999999996E-16</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G14" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>4865065</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.24091643989596E-7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>17632907</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.2600000000000001E-7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>20760852</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.2310299008981098E-6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>21913935</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.0476101338782101E-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>27323749</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.4671335709350698E-6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9438999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.53761152184483E-6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>11455731</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.913880085705E-6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>20273741</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.4581665434927499E-6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>18641874</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.06819855716407E-6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>15343460</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.3910703814473598E-6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>2854998</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6.5122100990227204E-6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>16595682</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5.5023675465818302E-6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>25769505</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7.5742468987956197E-6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
